--- a/data/gihun/dataset/충남출산율모델.xlsx
+++ b/data/gihun/dataset/충남출산율모델.xlsx
@@ -2693,14 +2693,18 @@
       <c r="C81" t="n">
         <v>0.3361188486536676</v>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="E81" t="n">
         <v>1077</v>
       </c>
       <c r="F81" t="n">
         <v>76.274</v>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>0.004262266884924738</v>
+      </c>
       <c r="H81" t="n">
         <v>57.2</v>
       </c>
@@ -2727,14 +2731,18 @@
       <c r="C82" t="n">
         <v>0.4671280276816609</v>
       </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>9.325000000000001</v>
+      </c>
       <c r="E82" t="n">
         <v>867</v>
       </c>
       <c r="F82" t="n">
         <v>76.348</v>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>0.004249813935245019</v>
+      </c>
       <c r="H82" t="n">
         <v>57.6</v>
       </c>
@@ -2761,14 +2769,18 @@
       <c r="C83" t="n">
         <v>0.3477493380406002</v>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>9.350000000000001</v>
+      </c>
       <c r="E83" t="n">
         <v>1133</v>
       </c>
       <c r="F83" t="n">
         <v>76.952</v>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>0.004237360985565301</v>
+      </c>
       <c r="H83" t="n">
         <v>57.9</v>
       </c>
@@ -2795,14 +2807,18 @@
       <c r="C84" t="n">
         <v>0.3563432835820896</v>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>9.375</v>
+      </c>
       <c r="E84" t="n">
         <v>1072</v>
       </c>
       <c r="F84" t="n">
         <v>77.027</v>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0.004224908035885582</v>
+      </c>
       <c r="H84" t="n">
         <v>58.3</v>
       </c>
@@ -2829,14 +2845,18 @@
       <c r="C85" t="n">
         <v>0.2659259259259259</v>
       </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>9.4</v>
+      </c>
       <c r="E85" t="n">
         <v>1350</v>
       </c>
       <c r="F85" t="n">
         <v>77.254</v>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0.004212455086205863</v>
+      </c>
       <c r="H85" t="n">
         <v>58.3</v>
       </c>
@@ -2863,14 +2883,18 @@
       <c r="C86" t="n">
         <v>0.3514760147601476</v>
       </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>9.425000000000001</v>
+      </c>
       <c r="E86" t="n">
         <v>1084</v>
       </c>
       <c r="F86" t="n">
         <v>77.178</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>0.004200002136526145</v>
+      </c>
       <c r="H86" t="n">
         <v>58.2</v>
       </c>
@@ -2897,14 +2921,18 @@
       <c r="C87" t="n">
         <v>0.3931818181818182</v>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>9.449999999999999</v>
+      </c>
       <c r="E87" t="n">
         <v>880</v>
       </c>
       <c r="F87" t="n">
         <v>77.48</v>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>0.004187549186846426</v>
+      </c>
       <c r="H87" t="n">
         <v>58</v>
       </c>
@@ -2931,14 +2959,18 @@
       <c r="C88" t="n">
         <v>0.5021786492374728</v>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>9.475</v>
+      </c>
       <c r="E88" t="n">
         <v>918</v>
       </c>
       <c r="F88" t="n">
         <v>78.00700000000001</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>0.004175096237166707</v>
+      </c>
       <c r="H88" t="n">
         <v>58</v>
       </c>
@@ -2965,14 +2997,18 @@
       <c r="C89" t="n">
         <v>0.5098554533508541</v>
       </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>9.5</v>
+      </c>
       <c r="E89" t="n">
         <v>761</v>
       </c>
       <c r="F89" t="n">
         <v>78.233</v>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0.004162643287486989</v>
+      </c>
       <c r="H89" t="n">
         <v>58</v>
       </c>
@@ -2999,14 +3035,18 @@
       <c r="C90" t="n">
         <v>0.4441913439635535</v>
       </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>9.525</v>
+      </c>
       <c r="E90" t="n">
         <v>878</v>
       </c>
       <c r="F90" t="n">
         <v>77.857</v>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0.00415019033780727</v>
+      </c>
       <c r="H90" t="n">
         <v>58.1</v>
       </c>
@@ -3033,14 +3073,18 @@
       <c r="C91" t="n">
         <v>0.2815331010452962</v>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="E91" t="n">
         <v>1435</v>
       </c>
       <c r="F91" t="n">
         <v>77.328</v>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0.004137737388127551</v>
+      </c>
       <c r="H91" t="n">
         <v>58.2</v>
       </c>
@@ -3067,14 +3111,18 @@
       <c r="C92" t="n">
         <v>0.1955161626694474</v>
       </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>9.574999999999999</v>
+      </c>
       <c r="E92" t="n">
         <v>1918</v>
       </c>
       <c r="F92" t="n">
         <v>77.55500000000001</v>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>0.004125284438447833</v>
+      </c>
       <c r="H92" t="n">
         <v>58.3</v>
       </c>
@@ -3101,14 +3149,18 @@
       <c r="C93" t="n">
         <v>0.3292021688613478</v>
       </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>9.6</v>
+      </c>
       <c r="E93" t="n">
         <v>1291</v>
       </c>
       <c r="F93" t="n">
         <v>77.78100000000001</v>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>0.004112831488768114</v>
+      </c>
       <c r="H93" t="n">
         <v>58.4</v>
       </c>
@@ -3135,14 +3187,18 @@
       <c r="C94" t="n">
         <v>0.3239962651727358</v>
       </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="n">
+        <v>9.991666666666667</v>
+      </c>
       <c r="E94" t="n">
         <v>1071</v>
       </c>
       <c r="F94" t="n">
         <v>78.158</v>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>0.004100815140436679</v>
+      </c>
       <c r="H94" t="n">
         <v>58.5</v>
       </c>
@@ -3169,14 +3225,18 @@
       <c r="C95" t="n">
         <v>0.3074842200180343</v>
       </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>10.38333333333333</v>
+      </c>
       <c r="E95" t="n">
         <v>1109</v>
       </c>
       <c r="F95" t="n">
         <v>78.68600000000001</v>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0.004088798792105245</v>
+      </c>
       <c r="H95" t="n">
         <v>58.7</v>
       </c>
@@ -3203,14 +3263,18 @@
       <c r="C96" t="n">
         <v>0.3265306122448979</v>
       </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>10.775</v>
+      </c>
       <c r="E96" t="n">
         <v>1176</v>
       </c>
       <c r="F96" t="n">
         <v>79.063</v>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>0.004076782443773811</v>
+      </c>
       <c r="H96" t="n">
         <v>58.7</v>
       </c>
@@ -3237,14 +3301,18 @@
       <c r="C97" t="n">
         <v>0.3072289156626506</v>
       </c>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>11.16666666666667</v>
+      </c>
       <c r="E97" t="n">
         <v>1328</v>
       </c>
       <c r="F97" t="n">
         <v>79.063</v>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>0.004064766095442377</v>
+      </c>
       <c r="H97" t="n">
         <v>58.8</v>
       </c>
@@ -3271,14 +3339,18 @@
       <c r="C98" t="n">
         <v>0.3513266239707228</v>
       </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>11.55833333333333</v>
+      </c>
       <c r="E98" t="n">
         <v>1093</v>
       </c>
       <c r="F98" t="n">
         <v>79.063</v>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>0.004052749747110943</v>
+      </c>
       <c r="H98" t="n">
         <v>58.8</v>
       </c>
@@ -3305,14 +3377,18 @@
       <c r="C99" t="n">
         <v>0.4389473684210526</v>
       </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>11.95</v>
+      </c>
       <c r="E99" t="n">
         <v>950</v>
       </c>
       <c r="F99" t="n">
         <v>79.364</v>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>0.004040733398779509</v>
+      </c>
       <c r="H99" t="n">
         <v>58.9</v>
       </c>
@@ -3339,14 +3415,18 @@
       <c r="C100" t="n">
         <v>0.4380853277835588</v>
       </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="n">
+        <v>12.34166666666667</v>
+      </c>
       <c r="E100" t="n">
         <v>961</v>
       </c>
       <c r="F100" t="n">
         <v>79.43899999999999</v>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0.004028717050448076</v>
+      </c>
       <c r="H100" t="n">
         <v>59</v>
       </c>
@@ -3373,14 +3453,18 @@
       <c r="C101" t="n">
         <v>0.5014285714285714</v>
       </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>12.73333333333333</v>
+      </c>
       <c r="E101" t="n">
         <v>700</v>
       </c>
       <c r="F101" t="n">
         <v>79.741</v>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>0.004016700702116642</v>
+      </c>
       <c r="H101" t="n">
         <v>59.1</v>
       </c>
@@ -3407,14 +3491,18 @@
       <c r="C102" t="n">
         <v>0.3809523809523809</v>
       </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>13.125</v>
+      </c>
       <c r="E102" t="n">
         <v>1134</v>
       </c>
       <c r="F102" t="n">
         <v>79.967</v>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>0.004004684353785207</v>
+      </c>
       <c r="H102" t="n">
         <v>59.2</v>
       </c>
@@ -3441,14 +3529,18 @@
       <c r="C103" t="n">
         <v>0.3119065010956903</v>
       </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="n">
+        <v>13.51666666666667</v>
+      </c>
       <c r="E103" t="n">
         <v>1369</v>
       </c>
       <c r="F103" t="n">
         <v>79.967</v>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>0.003992668005453773</v>
+      </c>
       <c r="H103" t="n">
         <v>59.2</v>
       </c>
@@ -3475,14 +3567,18 @@
       <c r="C104" t="n">
         <v>0.231060606060606</v>
       </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="n">
+        <v>13.90833333333333</v>
+      </c>
       <c r="E104" t="n">
         <v>1584</v>
       </c>
       <c r="F104" t="n">
         <v>80.34399999999999</v>
       </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>0.003980651657122339</v>
+      </c>
       <c r="H104" t="n">
         <v>59.1</v>
       </c>
@@ -9898,7 +9994,9 @@
       <c r="F273" t="n">
         <v>105.06</v>
       </c>
-      <c r="G273" t="inlineStr"/>
+      <c r="G273" t="n">
+        <v>0.001686642123710613</v>
+      </c>
       <c r="H273" t="n">
         <v>105.2</v>
       </c>
@@ -9928,7 +10026,9 @@
       <c r="F274" t="n">
         <v>105.9</v>
       </c>
-      <c r="G274" t="inlineStr"/>
+      <c r="G274" t="n">
+        <v>0.001686642123710613</v>
+      </c>
       <c r="H274" t="n">
         <v>105.4</v>
       </c>
@@ -9958,7 +10058,9 @@
       <c r="F275" t="n">
         <v>106.94</v>
       </c>
-      <c r="G275" t="inlineStr"/>
+      <c r="G275" t="n">
+        <v>0.001686642123710613</v>
+      </c>
       <c r="H275" t="n">
         <v>105.5</v>
       </c>
@@ -9988,7 +10090,9 @@
       <c r="F276" t="n">
         <v>107.87</v>
       </c>
-      <c r="G276" t="inlineStr"/>
+      <c r="G276" t="n">
+        <v>0.001686642123710613</v>
+      </c>
       <c r="H276" t="n">
         <v>105.4</v>
       </c>
@@ -10018,7 +10122,9 @@
       <c r="F277" t="n">
         <v>108.43</v>
       </c>
-      <c r="G277" t="inlineStr"/>
+      <c r="G277" t="n">
+        <v>0.001686642123710613</v>
+      </c>
       <c r="H277" t="n">
         <v>105.3</v>
       </c>
@@ -10048,7 +10154,9 @@
       <c r="F278" t="n">
         <v>109.47</v>
       </c>
-      <c r="G278" t="inlineStr"/>
+      <c r="G278" t="n">
+        <v>0.001686642123710613</v>
+      </c>
       <c r="H278" t="n">
         <v>105.2</v>
       </c>
@@ -10078,7 +10186,9 @@
       <c r="F279" t="n">
         <v>110.2</v>
       </c>
-      <c r="G279" t="inlineStr"/>
+      <c r="G279" t="n">
+        <v>0.001686642123710613</v>
+      </c>
       <c r="H279" t="n">
         <v>105.1</v>
       </c>
@@ -10108,7 +10218,9 @@
       <c r="F280" t="n">
         <v>109.89</v>
       </c>
-      <c r="G280" t="inlineStr"/>
+      <c r="G280" t="n">
+        <v>0.001686642123710613</v>
+      </c>
       <c r="H280" t="n">
         <v>104.8</v>
       </c>
@@ -10138,7 +10250,9 @@
       <c r="F281" t="n">
         <v>110.28</v>
       </c>
-      <c r="G281" t="inlineStr"/>
+      <c r="G281" t="n">
+        <v>0.001686642123710613</v>
+      </c>
       <c r="H281" t="n">
         <v>104.3</v>
       </c>
@@ -10168,7 +10282,9 @@
       <c r="F282" t="n">
         <v>110.43</v>
       </c>
-      <c r="G282" t="inlineStr"/>
+      <c r="G282" t="n">
+        <v>0.001686642123710613</v>
+      </c>
       <c r="H282" t="n">
         <v>103.6</v>
       </c>
@@ -10198,7 +10314,9 @@
       <c r="F283" t="n">
         <v>110.13</v>
       </c>
-      <c r="G283" t="inlineStr"/>
+      <c r="G283" t="n">
+        <v>0.001686642123710613</v>
+      </c>
       <c r="H283" t="n">
         <v>102.5</v>
       </c>
@@ -10222,13 +10340,15 @@
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="n">
-        <v>20.6</v>
+        <v>18</v>
       </c>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
         <v>110.28</v>
       </c>
-      <c r="G284" t="inlineStr"/>
+      <c r="G284" t="n">
+        <v>0.001686642123710613</v>
+      </c>
       <c r="H284" t="n">
         <v>100.9</v>
       </c>
@@ -10256,7 +10376,9 @@
       <c r="F285" t="n">
         <v>111.06</v>
       </c>
-      <c r="G285" t="inlineStr"/>
+      <c r="G285" t="n">
+        <v>0.001686642123710613</v>
+      </c>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
